--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>forced</t>
   </si>
   <si>
     <t>die</t>
@@ -55,34 +61,34 @@
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>lower</t>
   </si>
   <si>
     <t>low</t>
@@ -91,160 +97,166 @@
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>demand</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>prices</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>nice</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>helping</t>
   </si>
   <si>
     <t>check</t>
@@ -256,16 +268,16 @@
     <t>shop</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -760,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,16 +825,16 @@
         <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,16 +875,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>0.875</v>
@@ -942,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6610169491525424</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
         <v>47</v>
       </c>
-      <c r="K10">
-        <v>0.8429319371727748</v>
-      </c>
-      <c r="L10">
-        <v>322</v>
-      </c>
       <c r="M10">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8414634146341463</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6333333333333333</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.839622641509434</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5910852713178295</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C13">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D13">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8297872340425532</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C14">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.79375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L14">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5641025641025641</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.7906976744186046</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5641025641025641</v>
+        <v>0.52</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.7890625</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L16">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.55</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.7887323943661971</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4966442953020134</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>0.75</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,16 +1525,16 @@
         <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4821428571428572</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1584,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4533333333333333</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,38 +1654,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3636363636363636</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L22">
         <v>20</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>35</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L22">
-        <v>23</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,38 +1704,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3376623376623377</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L23">
         <v>26</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>26</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>51</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23">
-        <v>0.6558823529411765</v>
-      </c>
-      <c r="L23">
-        <v>223</v>
-      </c>
-      <c r="M23">
-        <v>223</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,13 +1754,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3293650793650794</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1784,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1792,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1810,31 +1822,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K25">
-        <v>0.6394557823129252</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L25">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="M25">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1854,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1860,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.6359832635983264</v>
+        <v>0.66</v>
       </c>
       <c r="L26">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1884,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,13 +1904,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.225201072386059</v>
+        <v>0.2546916890080429</v>
       </c>
       <c r="C27">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1910,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.6307692307692307</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1942,13 +1954,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.14</v>
+        <v>0.2375</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1960,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K28">
         <v>0.6285714285714286</v>
@@ -1992,37 +2004,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02976383047557425</v>
+        <v>0.14</v>
       </c>
       <c r="C29">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2999</v>
+        <v>258</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.5851063829787234</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2034,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2042,37 +2054,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02314814814814815</v>
+        <v>0.09897610921501707</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>844</v>
+        <v>264</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.5842696629213483</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2084,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2092,37 +2104,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.02256699576868829</v>
+        <v>0.03950777202072539</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D31">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="E31">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="F31">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2079</v>
+        <v>2966</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2134,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2142,49 +2154,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02241379310344828</v>
+        <v>0.03719723183391004</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <v>0.9</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1113</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>27</v>
-      </c>
-      <c r="E32">
-        <v>0.04</v>
-      </c>
-      <c r="F32">
-        <v>0.96</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1134</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.54</v>
-      </c>
-      <c r="L32">
-        <v>27</v>
-      </c>
-      <c r="M32">
-        <v>27</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2192,89 +2204,113 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008712487899322363</v>
+        <v>0.03074739829706717</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E33">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="F33">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>3072</v>
+        <v>2049</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.4888888888888889</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L33">
+        <v>47</v>
+      </c>
+      <c r="M33">
+        <v>47</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>121</v>
+      </c>
+      <c r="E34">
+        <v>0.77</v>
+      </c>
+      <c r="F34">
+        <v>0.23</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>3080</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>22</v>
-      </c>
-      <c r="M33">
-        <v>22</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L34">
-        <v>34</v>
-      </c>
-      <c r="M34">
-        <v>34</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35">
-        <v>0.4509803921568628</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2286,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K36">
-        <v>0.4487179487179487</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2312,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K37">
-        <v>0.3684210526315789</v>
+        <v>0.453125</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2338,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.360655737704918</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2364,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.2638888888888889</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2390,47 +2426,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.1869158878504673</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.1532258064516129</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2442,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.1243243243243243</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2468,47 +2504,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>162</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.06521739130434782</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>387</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.06168831168831169</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2520,85 +2556,215 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>289</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.0603448275862069</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>327</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.0359375</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N46">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>617</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47">
+        <v>0.07710843373493977</v>
+      </c>
+      <c r="L47">
+        <v>32</v>
+      </c>
+      <c r="M47">
+        <v>33</v>
+      </c>
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+      <c r="O47">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>0.02959501557632399</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0.7</v>
+      </c>
+      <c r="O48">
+        <v>0.3</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49">
+        <v>0.02930980144973212</v>
+      </c>
+      <c r="L49">
+        <v>93</v>
+      </c>
+      <c r="M49">
+        <v>121</v>
+      </c>
+      <c r="N49">
+        <v>0.77</v>
+      </c>
+      <c r="O49">
+        <v>0.23</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50">
+        <v>0.02219755826859045</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K47">
-        <v>0.03213610586011342</v>
-      </c>
-      <c r="L47">
-        <v>102</v>
-      </c>
-      <c r="M47">
-        <v>129</v>
-      </c>
-      <c r="N47">
-        <v>0.79</v>
-      </c>
-      <c r="O47">
-        <v>0.21</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3072</v>
+      <c r="K51">
+        <v>0.01395572666025024</v>
+      </c>
+      <c r="L51">
+        <v>29</v>
+      </c>
+      <c r="M51">
+        <v>94</v>
+      </c>
+      <c r="N51">
+        <v>0.31</v>
+      </c>
+      <c r="O51">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>0.006365159128978224</v>
+      </c>
+      <c r="L52">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>141</v>
+      </c>
+      <c r="N52">
+        <v>0.13</v>
+      </c>
+      <c r="O52">
+        <v>0.87</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2966</v>
       </c>
     </row>
   </sheetData>
